--- a/data/scaledupit/scaleupit.xlsx
+++ b/data/scaledupit/scaleupit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faridaymmeli/IdeaProjects/team2project/data/scaledupit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3A41FD-6AE5-0647-9148-5840A64A8242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8C193B-3975-D846-BCE7-C588641669AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" xr2:uid="{8AB7E0B6-9E77-4CA6-8218-722F00555F19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>key</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>farida892010@hotmail.fr</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>fouad</t>
   </si>
 </sst>
 </file>
@@ -443,79 +452,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334251DB-3C6A-40BC-B49A-E0CB228B3033}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -526,6 +607,20 @@
     <hyperlink ref="B7" r:id="rId4" xr:uid="{363F7CC4-99F1-DE45-B954-8307189CDCC1}"/>
     <hyperlink ref="B5" r:id="rId5" display="Password14@" xr:uid="{E0A58BB3-7F64-DB46-8F00-446C05FD3744}"/>
     <hyperlink ref="B6" r:id="rId6" xr:uid="{1C70D578-A5FF-2642-AB9A-E9C8FEDD8940}"/>
+    <hyperlink ref="C2" r:id="rId7" xr:uid="{867EE0A1-B8CE-7D4D-BCE1-A9CA347552D5}"/>
+    <hyperlink ref="C3" r:id="rId8" xr:uid="{01C4066D-8168-C747-A5DE-2E6E566C273A}"/>
+    <hyperlink ref="C4" r:id="rId9" display="farida@gmail.com" xr:uid="{EA52A56B-9901-0E45-B833-1CA4B2E546D9}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{AD4FF1CD-1AE8-4248-8323-E8CF9D8BA194}"/>
+    <hyperlink ref="C5" r:id="rId11" display="Password14@" xr:uid="{9EB04ED5-45EF-CB43-8E49-3698101F0EFC}"/>
+    <hyperlink ref="C6" r:id="rId12" xr:uid="{878664BC-95BA-7A4B-A1C7-FBF8953F8461}"/>
+    <hyperlink ref="D2" r:id="rId13" xr:uid="{E95BF3C0-2566-F440-B1FB-1CBE3BFBD4B8}"/>
+    <hyperlink ref="D3" r:id="rId14" xr:uid="{926726F8-6D23-5F40-BD88-31D69B27A025}"/>
+    <hyperlink ref="D4" r:id="rId15" display="farida@gmail.com" xr:uid="{84E611D6-3672-6E48-AA2D-5AE2EAD6B59F}"/>
+    <hyperlink ref="D7" r:id="rId16" xr:uid="{6BEB480A-FBD7-6644-8EE1-8E25BC57FDD7}"/>
+    <hyperlink ref="D5" r:id="rId17" display="Password14@" xr:uid="{A3169400-AA2B-9445-8858-BDB0A423894B}"/>
+    <hyperlink ref="D6" r:id="rId18" xr:uid="{54EB7A33-C059-8047-8166-7927DFB84588}"/>
+    <hyperlink ref="B9" r:id="rId19" xr:uid="{69DA368E-2318-4E48-8586-0045F6AFC884}"/>
+    <hyperlink ref="B10" r:id="rId20" xr:uid="{B7B8CC03-8B72-ED4B-A2CA-C1C5C15A2DE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
